--- a/일정표.xlsx
+++ b/일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20222\Knu_Capstone_Design_Project_Team2-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwang\Desktop\학교 파일\20222\종합 설계 프로젝트\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{558C6C23-4281-4444-9889-C9FC5C40F6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E7387A-F80A-4299-B8A2-78AF81885389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A4B429DC-4183-4A19-9B11-50192D404E73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4B429DC-4183-4A19-9B11-50192D404E73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>황윤호, 조준표, 조현수, 이효준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15일날 발표관련 해서 질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,14 +150,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -478,27 +475,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1F6201-5187-4E25-8FEF-BADC7328D162}">
-  <dimension ref="B1:H101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="1.8984375" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="5.09765625" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="2">
         <v>44812</v>
       </c>
@@ -528,16 +525,18 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -548,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -559,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -570,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -581,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -592,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -603,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -614,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -625,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -636,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -647,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -658,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -669,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -680,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -691,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -702,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -713,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -724,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -735,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -746,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -757,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -768,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -779,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -790,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -801,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -812,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -823,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -834,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -845,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -856,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -867,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -878,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -889,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -900,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -911,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -922,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -933,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -944,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -955,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -966,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -977,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -988,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -999,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1010,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1021,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1032,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1043,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1054,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1065,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1076,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1087,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1098,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1109,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1120,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1131,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1142,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1153,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1164,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1175,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1186,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1197,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1208,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1219,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1230,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1241,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1252,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1263,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1274,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1285,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1296,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1307,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1318,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1329,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1340,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1351,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1362,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1373,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1384,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1395,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1406,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1417,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1428,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1439,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1450,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1461,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -1472,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1483,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1494,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -1505,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -1516,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -1527,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -1538,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -1549,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -1560,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -1571,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -1582,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -1593,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -1604,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:8" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G100">
